--- a/ASSETS/spectra_batch.xlsx
+++ b/ASSETS/spectra_batch.xlsx
@@ -142,10 +142,10 @@
     <t xml:space="preserve">OC__</t>
   </si>
   <si>
-    <t xml:space="preserve">Lon</t>
+    <t xml:space="preserve">Lat</t>
   </si>
   <si>
-    <t xml:space="preserve">Lat</t>
+    <t xml:space="preserve">Lon</t>
   </si>
 </sst>
 </file>
@@ -160,6 +160,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -243,8 +244,8 @@
   </sheetPr>
   <dimension ref="A1:AN219"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI4" activeCellId="0" sqref="AI4:AN219"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,121 +380,121 @@
         <v>40</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-9.13</v>
+        <v>34.2</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>8.17</v>
+        <v>12.04</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>23.85</v>
+        <v>-8.5</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>33.78</v>
+        <v>11.95</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>27.6</v>
+        <v>-27.57</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>68.5</v>
+        <v>52.33</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>40.48</v>
+        <v>37.5</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>113.9</v>
+        <v>32.66</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>74.28</v>
+        <v>27.39</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>81.91</v>
+        <v>26.06</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>77.29</v>
+        <v>17.7</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>101.56</v>
+        <v>-0.78</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>128.56</v>
+        <v>36.4</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>124.92</v>
+        <v>7.46</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>103.68</v>
+        <v>15.2</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>2.52</v>
+        <v>46.84</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>15.41</v>
+        <v>51.5</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>23.04</v>
+        <v>45.55</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>34.95</v>
+        <v>50</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-105.89</v>
+        <v>50.64</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>-118.54</v>
+        <v>46.63</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-93.48</v>
+        <v>41.64</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-76.43</v>
+        <v>41.12</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>-91.41</v>
+        <v>33.97</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>-100.3</v>
+        <v>20</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>-88.56</v>
+        <v>14.52</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>-72.51</v>
+        <v>19.03</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>-52</v>
+        <v>-23.75</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>-77.6</v>
+        <v>-2.01</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>-61.71</v>
+        <v>-33.31</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>147.66</v>
+        <v>-34.04</v>
       </c>
       <c r="AG2" s="0" t="n">
-        <v>117.96</v>
+        <v>-32.16</v>
       </c>
       <c r="AH2" s="0" t="n">
-        <v>172.12</v>
+        <v>-43</v>
       </c>
       <c r="AI2" s="0" t="n">
-        <v>23.85</v>
+        <v>-8.5</v>
       </c>
       <c r="AJ2" s="0" t="n">
-        <v>74.28</v>
+        <v>27.39</v>
       </c>
       <c r="AK2" s="0" t="n">
-        <v>15.41</v>
+        <v>51.5</v>
       </c>
       <c r="AL2" s="0" t="n">
-        <v>-93.48</v>
+        <v>41.64</v>
       </c>
       <c r="AM2" s="0" t="n">
-        <v>-52</v>
+        <v>-23.75</v>
       </c>
       <c r="AN2" s="0" t="n">
-        <v>147.66</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,121 +502,121 @@
         <v>41</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>34.2</v>
+        <v>-9.13</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>12.04</v>
+        <v>8.17</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>-8.5</v>
+        <v>23.85</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>11.95</v>
+        <v>33.78</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>-27.57</v>
+        <v>27.6</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>52.33</v>
+        <v>68.5</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>37.5</v>
+        <v>40.48</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>32.66</v>
+        <v>113.9</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>27.39</v>
+        <v>74.28</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>26.06</v>
+        <v>81.91</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>17.7</v>
+        <v>77.29</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>-0.78</v>
+        <v>101.56</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>36.4</v>
+        <v>128.56</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>7.46</v>
+        <v>124.92</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>15.2</v>
+        <v>103.68</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>46.84</v>
+        <v>2.52</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>51.5</v>
+        <v>15.41</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>45.55</v>
+        <v>23.04</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>50</v>
+        <v>34.95</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>50.64</v>
+        <v>-105.89</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>46.63</v>
+        <v>-118.54</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>41.64</v>
+        <v>-93.48</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>41.12</v>
+        <v>-76.43</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>33.97</v>
+        <v>-91.41</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>20</v>
+        <v>-100.3</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>14.52</v>
+        <v>-88.56</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>19.03</v>
+        <v>-72.51</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>-23.75</v>
+        <v>-52</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>-2.01</v>
+        <v>-77.6</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>-33.31</v>
+        <v>-61.71</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>-34.04</v>
+        <v>147.66</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>-32.16</v>
+        <v>117.96</v>
       </c>
       <c r="AH3" s="0" t="n">
-        <v>-43</v>
+        <v>172.12</v>
       </c>
       <c r="AI3" s="0" t="n">
-        <v>-8.5</v>
+        <v>23.85</v>
       </c>
       <c r="AJ3" s="0" t="n">
-        <v>27.39</v>
+        <v>74.28</v>
       </c>
       <c r="AK3" s="0" t="n">
-        <v>51.5</v>
+        <v>15.41</v>
       </c>
       <c r="AL3" s="0" t="n">
-        <v>41.64</v>
+        <v>-93.48</v>
       </c>
       <c r="AM3" s="0" t="n">
-        <v>-23.75</v>
+        <v>-52</v>
       </c>
       <c r="AN3" s="0" t="n">
-        <v>-34.04</v>
+        <v>147.66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
